--- a/results/Winner_determination/dataset_06/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/Winner_determination/dataset_06/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,64 +579,64 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
+        <v>160</v>
+      </c>
+      <c r="H2">
+        <v>63</v>
+      </c>
+      <c r="I2">
         <v>97</v>
       </c>
-      <c r="H2">
-        <v>31</v>
-      </c>
-      <c r="I2">
-        <v>66</v>
-      </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="P2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="Q2">
-        <v>1.140723774018237</v>
+        <v>1.005086230657286</v>
       </c>
       <c r="R2">
-        <v>30.63756300543466</v>
+        <v>40.71517108319197</v>
       </c>
       <c r="S2">
-        <v>3.129032258064516</v>
+        <v>2.732142857142857</v>
       </c>
       <c r="T2">
-        <v>3.129032258064516</v>
+        <v>2.53968253968254</v>
       </c>
       <c r="U2">
-        <v>1.140723774018237</v>
+        <v>0.9320390888422941</v>
       </c>
       <c r="V2">
-        <v>30.63756300543466</v>
+        <v>38.28153740293547</v>
       </c>
       <c r="W2">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="X2">
         <v>876</v>
       </c>
       <c r="Y2">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -659,64 +659,64 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I3">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="P3">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="Q3">
-        <v>1.131402111491101</v>
+        <v>0.9959581346080264</v>
       </c>
       <c r="R3">
-        <v>38.74391554035598</v>
+        <v>58.33143296214183</v>
       </c>
       <c r="S3">
-        <v>3.1</v>
+        <v>2.707317073170732</v>
       </c>
       <c r="T3">
-        <v>3.1</v>
+        <v>2.707317073170732</v>
       </c>
       <c r="U3">
-        <v>1.131402111491101</v>
+        <v>0.9959581346080264</v>
       </c>
       <c r="V3">
-        <v>38.74391554035598</v>
+        <v>58.33143296214183</v>
       </c>
       <c r="W3">
-        <v>906</v>
+        <v>850</v>
       </c>
       <c r="X3">
         <v>990</v>
       </c>
       <c r="Y3">
-        <v>906</v>
+        <v>850</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -739,64 +739,64 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I4">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="P4">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q4">
-        <v>1.076139432816051</v>
+        <v>1.003302108863785</v>
       </c>
       <c r="R4">
-        <v>25.71581701551847</v>
+        <v>39.81838401249183</v>
       </c>
       <c r="S4">
-        <v>2.933333333333333</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="T4">
-        <v>2.933333333333333</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="U4">
-        <v>1.076139432816051</v>
+        <v>1.003302108863785</v>
       </c>
       <c r="V4">
-        <v>25.71581701551847</v>
+        <v>39.81838401249183</v>
       </c>
       <c r="W4">
-        <v>694</v>
+        <v>657</v>
       </c>
       <c r="X4">
         <v>752</v>
       </c>
       <c r="Y4">
-        <v>694</v>
+        <v>657</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -819,64 +819,64 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I5">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="P5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Q5">
-        <v>1.585145219865056</v>
+        <v>1.340250422618484</v>
       </c>
       <c r="R5">
-        <v>57.37136950337361</v>
+        <v>73.98747886907582</v>
       </c>
       <c r="S5">
-        <v>4.88</v>
+        <v>3.82</v>
       </c>
       <c r="T5">
-        <v>4.88</v>
+        <v>3.82</v>
       </c>
       <c r="U5">
-        <v>1.585145219865056</v>
+        <v>1.340250422618484</v>
       </c>
       <c r="V5">
-        <v>57.37136950337361</v>
+        <v>73.98747886907582</v>
       </c>
       <c r="W5">
-        <v>1010</v>
+        <v>966</v>
       </c>
       <c r="X5">
         <v>1107</v>
       </c>
       <c r="Y5">
-        <v>1010</v>
+        <v>966</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -899,64 +899,64 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I6">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="P6">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q6">
-        <v>1.845826690498331</v>
+        <v>1.241713132308783</v>
       </c>
       <c r="R6">
-        <v>41.85007971402003</v>
+        <v>47.57318783995746</v>
       </c>
       <c r="S6">
-        <v>6.333333333333333</v>
+        <v>3.461538461538462</v>
       </c>
       <c r="T6">
-        <v>6.333333333333333</v>
+        <v>3.461538461538462</v>
       </c>
       <c r="U6">
-        <v>1.845826690498331</v>
+        <v>1.241713132308783</v>
       </c>
       <c r="V6">
-        <v>41.85007971402003</v>
+        <v>47.57318783995746</v>
       </c>
       <c r="W6">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="X6">
         <v>802</v>
       </c>
       <c r="Y6">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -979,64 +979,64 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="I7">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="P7">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="Q7">
-        <v>1.36031887471663</v>
+        <v>1.33828514193353</v>
       </c>
       <c r="R7">
-        <v>59.94756388605143</v>
+        <v>94.34975091625408</v>
       </c>
       <c r="S7">
-        <v>3.897435897435897</v>
+        <v>3.8125</v>
       </c>
       <c r="T7">
-        <v>3.897435897435897</v>
+        <v>3.8125</v>
       </c>
       <c r="U7">
-        <v>1.36031887471663</v>
+        <v>1.33828514193353</v>
       </c>
       <c r="V7">
-        <v>59.94756388605143</v>
+        <v>94.34975091625408</v>
       </c>
       <c r="W7">
-        <v>924</v>
+        <v>857</v>
       </c>
       <c r="X7">
         <v>1037</v>
       </c>
       <c r="Y7">
-        <v>924</v>
+        <v>857</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1059,64 +1059,64 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="P8">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="Q8">
-        <v>0.9921288082656595</v>
+        <v>0.878550403891308</v>
       </c>
       <c r="R8">
-        <v>23.25974932723324</v>
+        <v>28.55827818986937</v>
       </c>
       <c r="S8">
-        <v>2.696969696969697</v>
+        <v>2.407407407407407</v>
       </c>
       <c r="T8">
-        <v>2.696969696969697</v>
+        <v>2.407407407407407</v>
       </c>
       <c r="U8">
-        <v>0.9921288082656595</v>
+        <v>0.878550403891308</v>
       </c>
       <c r="V8">
-        <v>23.25974932723324</v>
+        <v>28.55827818986937</v>
       </c>
       <c r="W8">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="X8">
         <v>705</v>
       </c>
       <c r="Y8">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1139,64 +1139,64 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I9">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="P9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Q9">
-        <v>1.47962630091211</v>
+        <v>1.299282984130261</v>
       </c>
       <c r="R9">
-        <v>43.96859507902148</v>
+        <v>65.63441676174747</v>
       </c>
       <c r="S9">
-        <v>4.391304347826087</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="T9">
-        <v>4.391304347826087</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="U9">
-        <v>1.47962630091211</v>
+        <v>1.299282984130261</v>
       </c>
       <c r="V9">
-        <v>43.96859507902148</v>
+        <v>65.63441676174747</v>
       </c>
       <c r="W9">
-        <v>818</v>
+        <v>768</v>
       </c>
       <c r="X9">
         <v>896</v>
       </c>
       <c r="Y9">
-        <v>818</v>
+        <v>768</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1219,64 +1219,64 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I10">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="P10">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="Q10">
-        <v>1.280933845462064</v>
+        <v>1.042653635020065</v>
       </c>
       <c r="R10">
-        <v>26.38132309075872</v>
+        <v>38.90997188401681</v>
       </c>
       <c r="S10">
-        <v>3.6</v>
+        <v>2.836734693877551</v>
       </c>
       <c r="T10">
-        <v>3.6</v>
+        <v>2.836734693877551</v>
       </c>
       <c r="U10">
-        <v>1.280933845462064</v>
+        <v>1.042653635020065</v>
       </c>
       <c r="V10">
-        <v>26.38132309075872</v>
+        <v>38.90997188401681</v>
       </c>
       <c r="W10">
-        <v>838</v>
+        <v>800</v>
       </c>
       <c r="X10">
         <v>890</v>
       </c>
       <c r="Y10">
-        <v>838</v>
+        <v>800</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1299,64 +1299,64 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I11">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q11">
-        <v>1.695615608675153</v>
+        <v>1.551374111479339</v>
       </c>
       <c r="R11">
-        <v>55.08768782649695</v>
+        <v>84.49640965230577</v>
       </c>
       <c r="S11">
-        <v>5.45</v>
+        <v>4.717948717948718</v>
       </c>
       <c r="T11">
-        <v>5.45</v>
+        <v>4.717948717948718</v>
       </c>
       <c r="U11">
-        <v>1.695615608675153</v>
+        <v>1.551374111479339</v>
       </c>
       <c r="V11">
-        <v>55.08768782649695</v>
+        <v>84.49640965230577</v>
       </c>
       <c r="W11">
-        <v>847</v>
+        <v>791</v>
       </c>
       <c r="X11">
         <v>936</v>
       </c>
       <c r="Y11">
-        <v>847</v>
+        <v>791</v>
       </c>
       <c r="Z11">
         <v>1</v>
